--- a/pred_ohlcv/54_21/2020-01-21 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 XLM ohlcv.xlsx
@@ -1926,7 +1926,7 @@
         <v>37860.18403526003</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>68629.74693526002</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>68629.74693526002</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>67565.74693526002</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>47719.31043526002</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>48148.31043526002</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>48148.31043526002</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>111284.16043526</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>111310.58383526</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>111323.12773526</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-190514.97160277</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-180577.62700277</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-157477.62700277</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-159071.82430277</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-168361.18340277</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-168561.18340277</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-168042.18340277</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-161497.82860277</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-162498.82860277</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-82705.76680276997</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>272116.44493003</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>269377.93963003</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>252796.34333003</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>253279.18463003</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>132795.43363003</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-207147.36936997</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-207147.36936997</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-178595.28126997</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-129896.40906997</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-157587.40906997</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-307566.05751127</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-313397.29555277</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-339909.20635277</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-339409.20635277</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-492443.35435277</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-492340.40135277</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-495340.40135277</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-497088.40135277</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-492679.57853482</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-868189.99513482</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>17925302.38966518</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>17925302.38966518</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>17925302.38966518</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>17862891.06306518</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>17808701.31216518</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>17796992.11086518</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>17798103.11086518</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>17808086.32266518</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>17817482.55156519</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>17835408.38236519</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>17802006.45806519</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>17802006.45806519</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>17664665.77116518</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>17664665.77116518</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>17668439.70276519</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>17718515.15876519</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>17721993.55260845</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>17643954.97660844</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>17661078.196893</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>17634911.736993</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>17554024.10051345</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>17624279.23027476</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>17624531.28347476</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>17785076.93307476</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>17785076.93307476</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>17785159.97127476</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>17782066.13917476</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>17706787.75807476</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>17716498.62627476</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>17716498.62627476</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>17171627.16537476</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>17171962.38347476</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>17121579.38347476</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>17121445.93897476</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>17121445.93897476</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>17142910.82970899</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>17142910.82970899</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>17142910.82970899</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>17142910.82970899</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>17327194.25120899</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>17382803.04350899</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>17736165.09020899</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>17604089.79590899</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>17604097.79590899</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>17713645.92620899</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>17764941.08150899</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>17800842.31040899</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>17940128.05180899</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>18154864.92370899</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>18382781.22910899</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>18478644.14430899</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>18344023.55240899</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>18381596.45580899</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>18376901.09020899</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>18592337.13382144</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>18490076.23952144</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>18467018.59123401</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>18375020.55793401</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>18375020.55793401</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>18411195.99358343</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>18411179.99358343</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>18475241.38808343</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>18515241.38808343</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>18586782.81028343</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>18583333.69288343</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>18504675.10008343</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>18526042.06418343</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>18988087.87308343</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>19065300.94148343</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>19678026.4581933</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>19833087.46639782</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>20618719.22600907</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>21335151.81229658</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>20953596.55277726</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>20773145.82197726</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>20979407.70477018</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>20940273.20017018</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>21135029.15207018</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>21021888.62827018</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>21002614.20987018</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>20805537.68037018</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>20887407.28334949</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>20503810.75534949</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>20608249.13694949</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>20693444.70484949</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>20693444.70484949</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>20651404.06864949</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>20583352.09394949</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>20595018.36194948</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>20595018.36194948</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>20493048.62474949</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>20413061.62554948</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>20317520.52084948</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>20309447.60464948</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>20710109.17694948</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>20714295.68904948</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>21005116.39300307</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>20802630.21523301</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>20749971.80523301</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>20578157.62353301</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>20489181.80023301</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>20550894.92773302</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>20483936.99423302</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>20846148.59303302</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>20886712.30253302</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>20820286.77893301</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>20825286.77893301</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>20910525.85036135</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>20906675.24966136</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>20955083.49776136</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>20957753.46377498</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>20957753.46377498</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>20963858.26877498</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>20963858.26877498</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>20824096.11949375</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>20809653.54279375</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>21585081.63805237</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>21676732.74379596</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>21455758.30975542</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>21173772.51995542</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>21155400.52955542</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>21027100.52955542</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>21036874.58835542</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>21082987.56845542</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>21061719.83305542</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>21068408.15595542</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>21020941.87535542</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>20922366.81855542</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>20930599.48875542</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>20902718.21175542</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>20916262.21175542</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>20887960.90015542</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>20888217.99265542</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>20932131.19255542</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>20930841.33675542</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>20930841.33675542</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>20930841.33675542</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>20890656.91045542</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>20899693.54415542</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>20900845.52035542</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>20932344.77105542</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>20881822.63785542</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>20881862.63785542</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>20881862.63785542</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>20881862.63785542</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>20881862.63785542</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>20875594.03695542</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>20789973.18845542</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>20977622.86823271</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>20939073.02953271</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>21327937.10452509</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>21355568.46792509</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>21342404.39829965</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>21293480.88889965</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>21227155.31599965</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>21229792.53463894</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>21229792.53463894</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>21271713.60923894</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>21391788.63163894</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>21391788.63163894</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>21383900.63283894</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>21334315.17143894</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>21338701.86713894</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>21338722.88973894</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>21405549.27343894</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>20295986.71823894</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>20393333.95503894</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>20346832.17163894</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>20288377.29593894</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>20286208.81263894</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>20320918.83063894</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>20340877.60265224</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>20359649.72710685</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>20356096.53960685</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>20329539.72470685</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>20261792.21600685</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>20184718.68980685</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>20246194.05080685</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>20069227.00740685</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>20059862.24490685</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>20051885.70370685</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>20051925.26680685</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>20034256.53010685</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>20043163.44860685</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>20046597.07350685</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 XLM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 XLM ohlcv.xlsx
@@ -2186,7 +2186,7 @@
         <v>48148.31043526002</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>48148.31043526002</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>111284.16043526</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>111310.58383526</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>111323.12773526</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-157477.62700277</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-159071.82430277</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-178595.28126997</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-129896.40906997</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-492443.35435277</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-492340.40135277</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-495340.40135277</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-497088.40135277</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-492679.57853482</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-868189.99513482</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-851929.41713482</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-851301.11713482</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>17925302.38966518</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>17925302.38966518</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>17862891.06306518</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>17808701.31216518</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>17796992.11086518</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>17798103.11086518</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>17808086.32266518</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>17817482.55156519</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>17835408.38236519</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>17802006.45806519</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>17802006.45806519</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>17664665.77116518</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>17664665.77116518</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>17668439.70276519</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>17718515.15876519</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>17721993.55260845</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>17643954.97660844</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>17661078.196893</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>17634911.736993</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>17554024.10051345</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>17624279.23027476</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>17624531.28347476</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>17785076.93307476</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>17785076.93307476</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>17785159.97127476</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>17782066.13917476</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>17706787.75807476</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>17716498.62627476</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>17716498.62627476</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>17171627.16537476</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>17171962.38347476</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>17121579.38347476</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>17121445.93897476</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>17121445.93897476</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>17142910.82970899</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>17142910.82970899</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>17142910.82970899</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>17142910.82970899</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>17327194.25120899</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>17382803.04350899</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>17736165.09020899</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>17604089.79590899</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>17604097.79590899</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>17713645.92620899</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>17764941.08150899</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>17800842.31040899</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>17940128.05180899</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>18154864.92370899</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>18382781.22910899</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>18478644.14430899</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>18344023.55240899</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>18381596.45580899</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>18376901.09020899</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>18592337.13382144</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>18490076.23952144</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>18467018.59123401</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>18375020.55793401</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>18375020.55793401</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>18411195.99358343</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>18411179.99358343</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>18475241.38808343</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>18515241.38808343</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>18586782.81028343</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>18583333.69288343</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>18504675.10008343</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>18526042.06418343</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>18988087.87308343</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>19065300.94148343</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>19678026.4581933</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>19833087.46639782</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>20618719.22600907</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>21335151.81229658</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>20953596.55277726</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>20773145.82197726</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>20979407.70477018</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>20940273.20017018</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>21135029.15207018</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>21021888.62827018</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>21002614.20987018</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>20805537.68037018</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>20887407.28334949</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>20503810.75534949</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>20608249.13694949</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>20693444.70484949</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>20595018.36194948</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>20493048.62474949</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>20413061.62554948</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>20309447.60464948</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>20710109.17694948</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>20714295.68904948</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>21005116.39300307</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>20802630.21523301</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>20749971.80523301</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>20578157.62353301</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>21173772.51995542</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>21061719.83305542</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>21068408.15595542</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>21327937.10452509</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>21355568.46792509</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>21342404.39829965</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>21293480.88889965</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>21227155.31599965</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>21229792.53463894</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>21229792.53463894</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>21271713.60923894</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>21391788.63163894</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>21391788.63163894</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>21383900.63283894</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>21334315.17143894</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>21338701.86713894</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>21338722.88973894</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>21405549.27343894</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>20295986.71823894</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>20393333.95503894</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>20346832.17163894</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>20288377.29593894</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>20286208.81263894</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>20320918.83063894</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>20340877.60265224</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>20359649.72710685</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>20356096.53960685</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>20329539.72470685</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>20261792.21600685</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>20184718.68980685</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>20246194.05080685</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>20069227.00740685</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>20059862.24490685</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>20051885.70370685</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>20051925.26680685</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>20034256.53010685</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>20043163.44860685</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>20046597.07350685</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
